--- a/pred_ohlcv/54_21/2020-01-22 LUNA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 LUNA ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>25746.92958478</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>25746.92958478</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>24348.04818478</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>27464.14638478</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>31818.28778478</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>27636.34448478</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>27636.34448478</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>32504.68888478</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>29401.00068478</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>31250.63578478</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>33761.09928478</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>33761.09928478</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>33761.09928478</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>33761.09928478</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>32448.61318478</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>34675.70658478</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>37880.39378478</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -912,7 +912,7 @@
         <v>29607.97628478</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -28394,7 +28394,7 @@
         <v>-189358.3908350502</v>
       </c>
       <c r="H1077">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1078" spans="1:8">
@@ -28524,7 +28524,7 @@
         <v>-208582.8999350502</v>
       </c>
       <c r="H1082">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1083" spans="1:8">
@@ -28550,7 +28550,7 @@
         <v>-203049.2161350502</v>
       </c>
       <c r="H1083">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1084" spans="1:8">
@@ -28576,7 +28576,7 @@
         <v>-199701.8822350502</v>
       </c>
       <c r="H1084">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1085" spans="1:8">
@@ -28602,7 +28602,7 @@
         <v>-199701.8822350502</v>
       </c>
       <c r="H1085">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1086" spans="1:8">
@@ -28628,7 +28628,7 @@
         <v>-199701.8822350502</v>
       </c>
       <c r="H1086">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1087" spans="1:8">
@@ -28654,7 +28654,7 @@
         <v>-196622.1054350502</v>
       </c>
       <c r="H1087">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1088" spans="1:8">
@@ -28680,7 +28680,7 @@
         <v>-192224.2770350502</v>
       </c>
       <c r="H1088">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1089" spans="1:8">
@@ -30422,7 +30422,7 @@
         <v>-251011.7112250701</v>
       </c>
       <c r="H1155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1156" spans="1:8">
@@ -30630,7 +30630,7 @@
         <v>-248870.7556250701</v>
       </c>
       <c r="H1163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1164" spans="1:8">
@@ -30682,7 +30682,7 @@
         <v>-246915.7363250701</v>
       </c>
       <c r="H1165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1166" spans="1:8">
@@ -30708,7 +30708,7 @@
         <v>-239654.5779250701</v>
       </c>
       <c r="H1166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1167" spans="1:8">
@@ -30734,7 +30734,7 @@
         <v>-243265.3845250701</v>
       </c>
       <c r="H1167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1168" spans="1:8">
@@ -30760,7 +30760,7 @@
         <v>-241138.5532250701</v>
       </c>
       <c r="H1168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1169" spans="1:8">
@@ -30786,7 +30786,7 @@
         <v>-233555.2369250701</v>
       </c>
       <c r="H1169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1170" spans="1:8">
@@ -30812,7 +30812,7 @@
         <v>-234297.5985250701</v>
       </c>
       <c r="H1170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1171" spans="1:8">
@@ -30838,7 +30838,7 @@
         <v>-236809.0132250701</v>
       </c>
       <c r="H1171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1172" spans="1:8">
@@ -30864,7 +30864,7 @@
         <v>-236809.0132250701</v>
       </c>
       <c r="H1172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1173" spans="1:8">
@@ -30890,7 +30890,7 @@
         <v>-236151.7290250701</v>
       </c>
       <c r="H1173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1174" spans="1:8">
@@ -30916,7 +30916,7 @@
         <v>-236151.7290250701</v>
       </c>
       <c r="H1174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1175" spans="1:8">
@@ -30942,7 +30942,7 @@
         <v>-236151.7290250701</v>
       </c>
       <c r="H1175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1176" spans="1:8">
@@ -30994,7 +30994,7 @@
         <v>-238435.4044250701</v>
       </c>
       <c r="H1177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1178" spans="1:8">
@@ -31020,7 +31020,7 @@
         <v>-236267.9951250701</v>
       </c>
       <c r="H1178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1179" spans="1:8">
@@ -31046,7 +31046,7 @@
         <v>-236446.0728250701</v>
       </c>
       <c r="H1179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1180" spans="1:8">
@@ -31072,7 +31072,7 @@
         <v>-236446.0728250701</v>
       </c>
       <c r="H1180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1181" spans="1:8">
@@ -31098,7 +31098,7 @@
         <v>-229506.3885250701</v>
       </c>
       <c r="H1181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1182" spans="1:8">
@@ -31124,7 +31124,7 @@
         <v>-229506.3885250701</v>
       </c>
       <c r="H1182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1183" spans="1:8">
@@ -31150,7 +31150,7 @@
         <v>-229506.3885250701</v>
       </c>
       <c r="H1183">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1184" spans="1:8">
@@ -31176,7 +31176,7 @@
         <v>-229506.3885250701</v>
       </c>
       <c r="H1184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1185" spans="1:8">
@@ -31202,7 +31202,7 @@
         <v>-229595.4279250701</v>
       </c>
       <c r="H1185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1186" spans="1:8">
@@ -31228,7 +31228,7 @@
         <v>-229035.7474250701</v>
       </c>
       <c r="H1186">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1187" spans="1:8">
@@ -31254,7 +31254,7 @@
         <v>-229035.7474250701</v>
       </c>
       <c r="H1187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1188" spans="1:8">
@@ -31280,7 +31280,7 @@
         <v>-230408.6222250701</v>
       </c>
       <c r="H1188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1189" spans="1:8">
@@ -31306,7 +31306,7 @@
         <v>-230408.6222250701</v>
       </c>
       <c r="H1189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1190" spans="1:8">
@@ -31332,7 +31332,7 @@
         <v>-230408.6222250701</v>
       </c>
       <c r="H1190">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1191" spans="1:8">
@@ -31358,7 +31358,7 @@
         <v>-229163.1021250701</v>
       </c>
       <c r="H1191">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1192" spans="1:8">
@@ -31384,7 +31384,7 @@
         <v>-229252.1812250701</v>
       </c>
       <c r="H1192">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1193" spans="1:8">
@@ -31410,7 +31410,7 @@
         <v>-227881.9241250701</v>
       </c>
       <c r="H1193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1194" spans="1:8">
@@ -31566,7 +31566,7 @@
         <v>-246050.3319250701</v>
       </c>
       <c r="H1199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1200" spans="1:8">
@@ -31592,7 +31592,7 @@
         <v>-246050.3319250701</v>
       </c>
       <c r="H1200">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1201" spans="1:8">
@@ -31644,7 +31644,7 @@
         <v>-246050.3319250701</v>
       </c>
       <c r="H1202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1203" spans="1:8">
@@ -31696,7 +31696,7 @@
         <v>-244960.7548250701</v>
       </c>
       <c r="H1204">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1205" spans="1:8">
@@ -31722,7 +31722,7 @@
         <v>-241169.1317250701</v>
       </c>
       <c r="H1205">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1206" spans="1:8">
@@ -31748,7 +31748,7 @@
         <v>-246234.4923250701</v>
       </c>
       <c r="H1206">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1207" spans="1:8">
@@ -31774,7 +31774,7 @@
         <v>-244064.1661250701</v>
       </c>
       <c r="H1207">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1208" spans="1:8">
@@ -31800,7 +31800,7 @@
         <v>-244064.1661250701</v>
       </c>
       <c r="H1208">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1209" spans="1:8">
@@ -31826,7 +31826,7 @@
         <v>-242018.7270250701</v>
       </c>
       <c r="H1209">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1210" spans="1:8">
@@ -31852,7 +31852,7 @@
         <v>-242018.7270250701</v>
       </c>
       <c r="H1210">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1211" spans="1:8">
@@ -31878,7 +31878,7 @@
         <v>-242018.7270250701</v>
       </c>
       <c r="H1211">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1212" spans="1:8">
@@ -31904,7 +31904,7 @@
         <v>-242018.7270250701</v>
       </c>
       <c r="H1212">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1213" spans="1:8">
@@ -31930,7 +31930,7 @@
         <v>-242018.7270250701</v>
       </c>
       <c r="H1213">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1214" spans="1:8">
@@ -31956,7 +31956,7 @@
         <v>-242536.6684250702</v>
       </c>
       <c r="H1214">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1215" spans="1:8">
@@ -31982,7 +31982,7 @@
         <v>-242536.6684250702</v>
       </c>
       <c r="H1215">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1216" spans="1:8">
@@ -32060,7 +32060,7 @@
         <v>-242536.6684250702</v>
       </c>
       <c r="H1218">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1219" spans="1:8">
@@ -32086,7 +32086,7 @@
         <v>-242536.6684250702</v>
       </c>
       <c r="H1219">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1220" spans="1:8">
@@ -32138,7 +32138,7 @@
         <v>-237160.1182250702</v>
       </c>
       <c r="H1221">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1222" spans="1:8">
@@ -32164,7 +32164,7 @@
         <v>-237160.1182250702</v>
       </c>
       <c r="H1222">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1223" spans="1:8">
@@ -32190,7 +32190,7 @@
         <v>-239446.3947250702</v>
       </c>
       <c r="H1223">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1224" spans="1:8">
@@ -32216,7 +32216,7 @@
         <v>-239446.3947250702</v>
       </c>
       <c r="H1224">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1225" spans="1:8">
@@ -32242,7 +32242,7 @@
         <v>-233307.7392250702</v>
       </c>
       <c r="H1225">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1226" spans="1:8">
@@ -32268,7 +32268,7 @@
         <v>-229033.1967250702</v>
       </c>
       <c r="H1226">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1227" spans="1:8">
@@ -32450,7 +32450,7 @@
         <v>-142269.9060328201</v>
       </c>
       <c r="H1233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1234" spans="1:8">
@@ -32476,7 +32476,7 @@
         <v>-151379.7820328201</v>
       </c>
       <c r="H1234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1235" spans="1:8">
@@ -33074,7 +33074,7 @@
         <v>-150046.9245328201</v>
       </c>
       <c r="H1257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1258" spans="1:8">
@@ -33100,7 +33100,7 @@
         <v>-135071.8249328201</v>
       </c>
       <c r="H1258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1259" spans="1:8">
@@ -33126,7 +33126,7 @@
         <v>-138819.8486328201</v>
       </c>
       <c r="H1259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1260" spans="1:8">
@@ -33152,7 +33152,7 @@
         <v>-142075.5348328201</v>
       </c>
       <c r="H1260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1261" spans="1:8">
@@ -33178,7 +33178,7 @@
         <v>-147236.5820328201</v>
       </c>
       <c r="H1261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1262" spans="1:8">
@@ -33204,7 +33204,7 @@
         <v>-144954.7209328201</v>
       </c>
       <c r="H1262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1263" spans="1:8">
@@ -33230,7 +33230,7 @@
         <v>-147816.2839328201</v>
       </c>
       <c r="H1263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1264" spans="1:8">
@@ -33256,7 +33256,7 @@
         <v>-151428.0546328201</v>
       </c>
       <c r="H1264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1265" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-22 LUNA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 LUNA ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>25746.92958478</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>25746.92958478</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>24348.04818478</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>27464.14638478</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>31818.28778478</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>27636.34448478</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>27636.34448478</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>32504.68888478</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>29401.00068478</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>31250.63578478</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>33761.09928478</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>33761.09928478</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>33761.09928478</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>33761.09928478</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>32448.61318478</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -30656,7 +30656,7 @@
         <v>-246915.7363250701</v>
       </c>
       <c r="H1164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1165" spans="1:8">
@@ -30682,7 +30682,7 @@
         <v>-246915.7363250701</v>
       </c>
       <c r="H1165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1166" spans="1:8">
@@ -30708,7 +30708,7 @@
         <v>-239654.5779250701</v>
       </c>
       <c r="H1166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1167" spans="1:8">
@@ -30734,7 +30734,7 @@
         <v>-243265.3845250701</v>
       </c>
       <c r="H1167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1168" spans="1:8">
@@ -30760,7 +30760,7 @@
         <v>-241138.5532250701</v>
       </c>
       <c r="H1168">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1169" spans="1:8">
@@ -30786,7 +30786,7 @@
         <v>-233555.2369250701</v>
       </c>
       <c r="H1169">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1170" spans="1:8">
@@ -30812,7 +30812,7 @@
         <v>-234297.5985250701</v>
       </c>
       <c r="H1170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1171" spans="1:8">
@@ -30838,7 +30838,7 @@
         <v>-236809.0132250701</v>
       </c>
       <c r="H1171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1172" spans="1:8">
@@ -30864,7 +30864,7 @@
         <v>-236809.0132250701</v>
       </c>
       <c r="H1172">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1173" spans="1:8">
@@ -30890,7 +30890,7 @@
         <v>-236151.7290250701</v>
       </c>
       <c r="H1173">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1174" spans="1:8">
@@ -30916,7 +30916,7 @@
         <v>-236151.7290250701</v>
       </c>
       <c r="H1174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1175" spans="1:8">
@@ -30942,7 +30942,7 @@
         <v>-236151.7290250701</v>
       </c>
       <c r="H1175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1176" spans="1:8">
@@ -30968,7 +30968,7 @@
         <v>-238435.4044250701</v>
       </c>
       <c r="H1176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1177" spans="1:8">
@@ -30994,7 +30994,7 @@
         <v>-238435.4044250701</v>
       </c>
       <c r="H1177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1178" spans="1:8">
@@ -31020,7 +31020,7 @@
         <v>-236267.9951250701</v>
       </c>
       <c r="H1178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1179" spans="1:8">
@@ -31046,7 +31046,7 @@
         <v>-236446.0728250701</v>
       </c>
       <c r="H1179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1180" spans="1:8">
@@ -31072,7 +31072,7 @@
         <v>-236446.0728250701</v>
       </c>
       <c r="H1180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1181" spans="1:8">
@@ -31098,7 +31098,7 @@
         <v>-229506.3885250701</v>
       </c>
       <c r="H1181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1182" spans="1:8">
@@ -31124,7 +31124,7 @@
         <v>-229506.3885250701</v>
       </c>
       <c r="H1182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1183" spans="1:8">
@@ -31150,7 +31150,7 @@
         <v>-229506.3885250701</v>
       </c>
       <c r="H1183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1184" spans="1:8">
@@ -31176,7 +31176,7 @@
         <v>-229506.3885250701</v>
       </c>
       <c r="H1184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1185" spans="1:8">
@@ -31202,7 +31202,7 @@
         <v>-229595.4279250701</v>
       </c>
       <c r="H1185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1186" spans="1:8">
@@ -31228,7 +31228,7 @@
         <v>-229035.7474250701</v>
       </c>
       <c r="H1186">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1187" spans="1:8">
@@ -31254,7 +31254,7 @@
         <v>-229035.7474250701</v>
       </c>
       <c r="H1187">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1188" spans="1:8">
@@ -31306,7 +31306,7 @@
         <v>-230408.6222250701</v>
       </c>
       <c r="H1189">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1190" spans="1:8">
@@ -31332,7 +31332,7 @@
         <v>-230408.6222250701</v>
       </c>
       <c r="H1190">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1191" spans="1:8">
@@ -31358,7 +31358,7 @@
         <v>-229163.1021250701</v>
       </c>
       <c r="H1191">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1192" spans="1:8">
@@ -31384,7 +31384,7 @@
         <v>-229252.1812250701</v>
       </c>
       <c r="H1192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1193" spans="1:8">
@@ -31410,7 +31410,7 @@
         <v>-227881.9241250701</v>
       </c>
       <c r="H1193">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1194" spans="1:8">
@@ -31436,7 +31436,7 @@
         <v>-227881.9241250701</v>
       </c>
       <c r="H1194">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1195" spans="1:8">
@@ -31462,7 +31462,7 @@
         <v>-227881.9241250701</v>
       </c>
       <c r="H1195">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1196" spans="1:8">
@@ -31488,7 +31488,7 @@
         <v>-227881.9241250701</v>
       </c>
       <c r="H1196">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1197" spans="1:8">
@@ -31566,7 +31566,7 @@
         <v>-246050.3319250701</v>
       </c>
       <c r="H1199">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1200" spans="1:8">
@@ -32294,7 +32294,7 @@
         <v>-213230.6214250702</v>
       </c>
       <c r="H1227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1228" spans="1:8">
@@ -32450,7 +32450,7 @@
         <v>-142269.9060328201</v>
       </c>
       <c r="H1233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1234" spans="1:8">
@@ -32476,7 +32476,7 @@
         <v>-151379.7820328201</v>
       </c>
       <c r="H1234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1235" spans="1:8">
@@ -33074,7 +33074,7 @@
         <v>-150046.9245328201</v>
       </c>
       <c r="H1257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1258" spans="1:8">
@@ -33100,7 +33100,7 @@
         <v>-135071.8249328201</v>
       </c>
       <c r="H1258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1259" spans="1:8">
@@ -33126,7 +33126,7 @@
         <v>-138819.8486328201</v>
       </c>
       <c r="H1259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1260" spans="1:8">
@@ -33152,7 +33152,7 @@
         <v>-142075.5348328201</v>
       </c>
       <c r="H1260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1261" spans="1:8">
@@ -33178,7 +33178,7 @@
         <v>-147236.5820328201</v>
       </c>
       <c r="H1261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1262" spans="1:8">
@@ -33204,7 +33204,7 @@
         <v>-144954.7209328201</v>
       </c>
       <c r="H1262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1263" spans="1:8">
@@ -33230,7 +33230,7 @@
         <v>-147816.2839328201</v>
       </c>
       <c r="H1263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1264" spans="1:8">
@@ -33256,7 +33256,7 @@
         <v>-151428.0546328201</v>
       </c>
       <c r="H1264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1265" spans="1:8">
